--- a/JobSearch/Marcelo_Gitelman_Javascript-FT_Job_Search_Tracker_JS-FT_JAN2023.xlsx
+++ b/JobSearch/Marcelo_Gitelman_Javascript-FT_Job_Search_Tracker_JS-FT_JAN2023.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celao\Desktop\DI-Bootcamp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celao\Desktop\DI-Bootcamp\JobSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Your Tracker v 1.1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
   <si>
     <t>NAME</t>
   </si>
@@ -288,6 +288,36 @@
   <si>
     <t>It is your sole responsibility to keep track of all job search required activities. Developers Institute recommends that you keep a written log of your activities, back up all data, and make copies of relevant documentation. Developers Institute may, at any time during the 9-month period following your completion of the relevant program, verify your compliance with the job search requirements and ask you for proof of compliance.</t>
   </si>
+  <si>
+    <t>eBay</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Jfrog</t>
+  </si>
+  <si>
+    <t>Elbit</t>
+  </si>
+  <si>
+    <t>CISCO</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Wix</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
 </sst>
 </file>
 
@@ -297,7 +327,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -421,6 +451,12 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -493,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -604,6 +640,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,7 +981,7 @@
   </sheetPr>
   <dimension ref="A1:Z1022"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -29588,11 +29633,11 @@
   </sheetPr>
   <dimension ref="A1:AK1011"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -29680,7 +29725,9 @@
       <c r="AK1" s="13"/>
     </row>
     <row r="2" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A2" s="14"/>
+      <c r="A2" s="55" t="s">
+        <v>47</v>
+      </c>
       <c r="B2" s="15"/>
       <c r="C2" s="16"/>
       <c r="D2" s="14"/>
@@ -29719,7 +29766,9 @@
       <c r="AK2" s="13"/>
     </row>
     <row r="3" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A3" s="14"/>
+      <c r="A3" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="B3" s="15"/>
       <c r="C3" s="16"/>
       <c r="D3" s="14"/>
@@ -29758,7 +29807,9 @@
       <c r="AK3" s="13"/>
     </row>
     <row r="4" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A4" s="14"/>
+      <c r="A4" s="55" t="s">
+        <v>49</v>
+      </c>
       <c r="B4" s="15"/>
       <c r="C4" s="16"/>
       <c r="D4" s="14"/>
@@ -29797,7 +29848,9 @@
       <c r="AK4" s="13"/>
     </row>
     <row r="5" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A5" s="14"/>
+      <c r="A5" s="55" t="s">
+        <v>50</v>
+      </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16"/>
       <c r="D5" s="14"/>
@@ -29836,7 +29889,9 @@
       <c r="AK5" s="13"/>
     </row>
     <row r="6" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A6" s="14"/>
+      <c r="A6" s="55" t="s">
+        <v>51</v>
+      </c>
       <c r="B6" s="15"/>
       <c r="C6" s="16"/>
       <c r="D6" s="14"/>
@@ -29875,7 +29930,9 @@
       <c r="AK6" s="13"/>
     </row>
     <row r="7" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A7" s="14"/>
+      <c r="A7" s="55" t="s">
+        <v>52</v>
+      </c>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
       <c r="D7" s="14"/>
@@ -29914,7 +29971,9 @@
       <c r="AK7" s="13"/>
     </row>
     <row r="8" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A8" s="14"/>
+      <c r="A8" s="55" t="s">
+        <v>53</v>
+      </c>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
       <c r="D8" s="14"/>
@@ -29953,7 +30012,9 @@
       <c r="AK8" s="13"/>
     </row>
     <row r="9" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A9" s="14"/>
+      <c r="A9" s="55" t="s">
+        <v>54</v>
+      </c>
       <c r="B9" s="19"/>
       <c r="C9" s="16"/>
       <c r="D9" s="14"/>
@@ -29992,7 +30053,9 @@
       <c r="AK9" s="13"/>
     </row>
     <row r="10" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A10" s="20"/>
+      <c r="A10" s="56" t="s">
+        <v>55</v>
+      </c>
       <c r="B10" s="14"/>
       <c r="C10" s="16"/>
       <c r="D10" s="14"/>
@@ -30031,7 +30094,9 @@
       <c r="AK10" s="13"/>
     </row>
     <row r="11" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A11" s="20"/>
+      <c r="A11" s="56" t="s">
+        <v>56</v>
+      </c>
       <c r="B11" s="14"/>
       <c r="C11" s="16"/>
       <c r="D11" s="14"/>
@@ -30070,7 +30135,7 @@
       <c r="AK11" s="13"/>
     </row>
     <row r="12" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A12" s="20"/>
+      <c r="A12" s="57"/>
       <c r="B12" s="14"/>
       <c r="C12" s="22"/>
       <c r="D12" s="14"/>
@@ -69101,6 +69166,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/JobSearch/Marcelo_Gitelman_Javascript-FT_Job_Search_Tracker_JS-FT_JAN2023.xlsx
+++ b/JobSearch/Marcelo_Gitelman_Javascript-FT_Job_Search_Tracker_JS-FT_JAN2023.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>NAME</t>
   </si>
@@ -317,6 +317,9 @@
   </si>
   <si>
     <t>Intel</t>
+  </si>
+  <si>
+    <t>Mobileye</t>
   </si>
 </sst>
 </file>
@@ -29637,7 +29640,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30135,7 +30138,9 @@
       <c r="AK11" s="13"/>
     </row>
     <row r="12" spans="1:37" ht="15.75" customHeight="1">
-      <c r="A12" s="57"/>
+      <c r="A12" s="57" t="s">
+        <v>57</v>
+      </c>
       <c r="B12" s="14"/>
       <c r="C12" s="22"/>
       <c r="D12" s="14"/>
